--- a/app/views/agent-service-1-6/agent/pc-claims-may-2022.xlsx
+++ b/app/views/agent-service-1-6/agent/pc-claims-may-2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.mccormick/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.mccormick/Documents/CLIENTS/GOV/pension-credit/app/views/agent-service-1-6/agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94027A39-A02C-764A-8C03-480008FF6757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84636F8-A750-B14D-BF4B-CEACA005033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{AAB17514-E78F-B940-8B9A-3C60DF9BD516}"/>
   </bookViews>
@@ -35,18 +35,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>This is a excel test</t>
+    <t xml:space="preserve">This is the worlds best spread sheet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for being apart of this test. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,8 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,17 +402,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FAFA8F-8F8B-764D-A14C-D57CCB146B5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/app/views/agent-service-1-6/agent/pc-claims-may-2022.xlsx
+++ b/app/views/agent-service-1-6/agent/pc-claims-may-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark.mccormick/Documents/CLIENTS/GOV/pension-credit/app/views/agent-service-1-6/agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84636F8-A750-B14D-BF4B-CEACA005033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C2A6D6-2D68-1940-966D-11B6DA96FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{AAB17514-E78F-B940-8B9A-3C60DF9BD516}"/>
   </bookViews>
@@ -37,10 +37,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">This is the worlds best spread sheet. </t>
+    <t xml:space="preserve">Thank you for being apart of this test. </t>
   </si>
   <si>
-    <t xml:space="preserve">Thank you for being apart of this test. </t>
+    <t xml:space="preserve">This is not the greatest spreadsheet in the world. 
+This is just a tribute. </t>
   </si>
 </sst>
 </file>
@@ -405,22 +406,22 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="96" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
